--- a/03スプリントバックログ/完成版Scrum2_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/完成版Scrum2_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF6889-9697-4FE1-8887-C392C8D27817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138D538-8642-4AC9-BFE8-92BFCE716491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="3640" windowWidth="15170" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -546,6 +546,27 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>フジサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[実施　完了]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1143,10 +1164,11 @@
     <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1178,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1191,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1183,8 +1208,11 @@
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1225,11 @@
       <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1211,8 +1242,9 @@
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1225,8 +1257,9 @@
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1239,8 +1272,9 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1253,8 +1287,9 @@
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1302,9 @@
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1281,18 +1317,21 @@
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
